--- a/artfynd/A 4544-2023.xlsx
+++ b/artfynd/A 4544-2023.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108367417</v>
+        <v>108369210</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>663132.0536545257</v>
+        <v>663162.7064135609</v>
       </c>
       <c r="R3" t="n">
-        <v>6705596.601038971</v>
+        <v>6705981.337152475</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -878,6 +878,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,19 +897,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108369210</v>
+        <v>108367419</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -944,13 +949,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>663162.7064135609</v>
+        <v>663092.6272863077</v>
       </c>
       <c r="R4" t="n">
-        <v>6705981.337152475</v>
+        <v>6705966.322238538</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -990,11 +995,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1009,19 +1009,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108367419</v>
+        <v>108369211</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>663092.6272863077</v>
+        <v>663155.2423936725</v>
       </c>
       <c r="R5" t="n">
-        <v>6705966.322238538</v>
+        <v>6706004.217932139</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1107,6 +1107,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1121,22 +1126,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108369211</v>
+        <v>108367415</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>95511</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>221944</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,13 +1178,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>663155.2423936725</v>
+        <v>663125.9516252303</v>
       </c>
       <c r="R6" t="n">
-        <v>6706004.217932139</v>
+        <v>6705852.723180643</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1219,11 +1224,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1238,19 +1238,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108367421</v>
+        <v>108367417</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>663073.8261583259</v>
+        <v>663132.0536545257</v>
       </c>
       <c r="R7" t="n">
-        <v>6705549.019092269</v>
+        <v>6705596.601038971</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108367415</v>
+        <v>108367421</v>
       </c>
       <c r="B8" t="n">
-        <v>95511</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,21 +1378,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221944</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>663125.9516252303</v>
+        <v>663073.8261583259</v>
       </c>
       <c r="R8" t="n">
-        <v>6705852.723180643</v>
+        <v>6705549.019092269</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>

--- a/artfynd/A 4544-2023.xlsx
+++ b/artfynd/A 4544-2023.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108369210</v>
+        <v>108367417</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>663162.7064135609</v>
+        <v>663132.0536545257</v>
       </c>
       <c r="R3" t="n">
-        <v>6705981.337152475</v>
+        <v>6705596.601038971</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -878,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,19 +892,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108367419</v>
+        <v>108369210</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -949,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>663092.6272863077</v>
+        <v>663162.7064135609</v>
       </c>
       <c r="R4" t="n">
-        <v>6705966.322238538</v>
+        <v>6705981.337152475</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -995,6 +990,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1009,19 +1009,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108369211</v>
+        <v>108367419</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>663155.2423936725</v>
+        <v>663092.6272863077</v>
       </c>
       <c r="R5" t="n">
-        <v>6706004.217932139</v>
+        <v>6705966.322238538</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1107,11 +1107,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1126,22 +1121,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Nadja Nilsson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108367415</v>
+        <v>108369211</v>
       </c>
       <c r="B6" t="n">
-        <v>95511</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221944</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,13 +1173,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>663125.9516252303</v>
+        <v>663155.2423936725</v>
       </c>
       <c r="R6" t="n">
-        <v>6705852.723180643</v>
+        <v>6706004.217932139</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1224,6 +1219,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>#SAKNAS!</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1238,19 +1238,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Nadja Nilsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108367417</v>
+        <v>108367421</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>663132.0536545257</v>
+        <v>663073.8261583259</v>
       </c>
       <c r="R7" t="n">
-        <v>6705596.601038971</v>
+        <v>6705549.019092269</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108367421</v>
+        <v>108367415</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>95511</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,21 +1378,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>221944</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>663073.8261583259</v>
+        <v>663125.9516252303</v>
       </c>
       <c r="R8" t="n">
-        <v>6705549.019092269</v>
+        <v>6705852.723180643</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
